--- a/数据整理/stocks/A股/深证主板/000657-中钨高新.xlsx
+++ b/数据整理/stocks/A股/深证主板/000657-中钨高新.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -43,10 +49,22 @@
     <t>万家战略发展产业混合C</t>
   </si>
   <si>
+    <t>32.84</t>
+  </si>
+  <si>
+    <t>10.49</t>
+  </si>
+  <si>
     <t>56.03</t>
   </si>
   <si>
     <t>1.68</t>
+  </si>
+  <si>
+    <t>0.5517</t>
+  </si>
+  <si>
+    <t>0.1762</t>
   </si>
 </sst>
 </file>
@@ -404,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,44 +444,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000657-中钨高新.xlsx
+++ b/数据整理/stocks/A股/深证主板/000657-中钨高新.xlsx
@@ -1,102 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>010611</t>
-  </si>
-  <si>
-    <t>010612</t>
-  </si>
-  <si>
-    <t>万家战略发展产业混合A</t>
-  </si>
-  <si>
-    <t>万家战略发展产业混合C</t>
-  </si>
-  <si>
-    <t>32.84</t>
-  </si>
-  <si>
-    <t>10.49</t>
-  </si>
-  <si>
-    <t>56.03</t>
-  </si>
-  <si>
-    <t>1.68</t>
-  </si>
-  <si>
-    <t>0.5517</t>
-  </si>
-  <si>
-    <t>0.1762</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,89 +446,531 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5517</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1762</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5167</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0993</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2456</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2132</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000657-中钨高新.xlsx
+++ b/数据整理/stocks/A股/深证主板/000657-中钨高新.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3682</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3291</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7747</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5819</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4612</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4498</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3046</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2899</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2464</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000657-中钨高新.xlsx
+++ b/数据整理/stocks/A股/深证主板/000657-中钨高新.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1486,4 +1487,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000657-中钨高新.xlsx
+++ b/数据整理/stocks/A股/深证主板/000657-中钨高新.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1495,7 +1496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1506,17 +1507,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1526,14 +1547,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.98</v>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9451</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1542,14 +1585,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.41</v>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4728</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1558,13 +1623,1496 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1323</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0089</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9266</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8030</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6519</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4582</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4357</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3384</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013422</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>太平智行三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1538</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>47.32</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>47.32</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.73</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000657-中钨高新.xlsx
+++ b/数据整理/stocks/A股/深证主板/000657-中钨高新.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3027,7 +3028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3038,17 +3039,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3058,14 +3079,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>39</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.75</v>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1465</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3074,14 +3117,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.98</v>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0390</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3090,14 +3155,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.41</v>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7402</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3106,13 +3193,714 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7250</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5350</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5232</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4990</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4866</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3312</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2402</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501219</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014198</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.73</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000657-中钨高新.xlsx
+++ b/数据整理/stocks/A股/深证主板/000657-中钨高新.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3799,7 +3800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3810,17 +3811,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3830,14 +3851,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.72</v>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0713</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3846,14 +3889,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>39</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.75</v>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9088</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3862,14 +3927,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.98</v>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8485</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3878,14 +3965,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.41</v>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7934</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3894,13 +4003,1155 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>014007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7838</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6444</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014389</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4815</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4219</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3678</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3566</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013613</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3566</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2475</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2057</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013619</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006568</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国联安行业领先混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005708</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国联安远见成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012771</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012815</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014390</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013507</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014008</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014871</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.91</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.73</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000657-中钨高新.xlsx
+++ b/数据整理/stocks/A股/深证主板/000657-中钨高新.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010611</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>万家战略发展产业混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>32.84</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>56.03</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5517</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.52</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010612</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>万家战略发展产业混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.49</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>56.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1762</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010792</t>
+          <t>040015</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安成长先锋混合A</t>
+          <t>华安动态灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.93</t>
+          <t>22.94</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>78.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5167</t>
+          <t>1.0713</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -677,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010694</t>
+          <t>010792</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家内需增长一年持有期混合</t>
+          <t>华安成长先锋混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.87</t>
+          <t>18.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.84</t>
+          <t>92.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0993</t>
+          <t>0.9088</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010793</t>
+          <t>010929</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华安成长先锋混合C</t>
+          <t>大成核心价值甄选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>10.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>80.70</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2456</t>
+          <t>0.8485</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -753,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005299</t>
+          <t>040001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家成长优选灵活配置混合A</t>
+          <t>华安创新混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>17.67</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.55</t>
+          <t>76.82</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2132</t>
+          <t>0.7934</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -791,32 +791,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>040015</t>
+          <t>014007</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安动态灵活配置混合</t>
+          <t>华安制造升级一年持有混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>15.77</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>79.67</t>
+          <t>92.74</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1714</t>
+          <t>0.7838</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -829,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005300</t>
+          <t>006154</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>万家成长优选灵活配置混合C</t>
+          <t>华安制造先锋混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>13.71</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.55</t>
+          <t>91.77</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0883</t>
+          <t>0.6444</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -867,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006154</t>
+          <t>014389</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华安制造先锋混合</t>
+          <t>华安产业动力6个月持有混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.91</t>
+          <t>92.09</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0476</t>
+          <t>0.4815</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -905,36 +905,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006132</t>
+          <t>001487</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>万家智造优势混合A</t>
+          <t>宝盈优势产业灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.75</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0253</t>
+          <t>0.4219</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -943,36 +943,872 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006133</t>
+          <t>001128</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>万家智造优势混合C</t>
+          <t>宝盈新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>12.06</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.75</t>
+          <t>93.52</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0047</t>
+          <t>0.3678</t>
         </is>
       </c>
       <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3566</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013613</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3566</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2475</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2057</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013619</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006568</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国联安行业领先混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005708</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国联安远见成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012771</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012815</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014390</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013507</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014008</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014871</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.91</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -986,7 +1822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1007,7 +1843,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1037,36 +1873,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010792</t>
+          <t>040015</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安成长先锋混合A</t>
+          <t>华安动态灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.63</t>
+          <t>22.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>79.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3682</t>
+          <t>1.1465</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1075,36 +1911,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010694</t>
+          <t>010792</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家内需增长一年持有期混合</t>
+          <t>华安成长先锋混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28.10</t>
+          <t>16.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3291</t>
+          <t>1.0390</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1113,36 +1949,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010611</t>
+          <t>005299</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家战略发展产业混合A</t>
+          <t>万家成长优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.85</t>
+          <t>24.43</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7747</t>
+          <t>0.7402</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1151,36 +1987,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005299</t>
+          <t>006154</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家成长优选灵活配置混合A</t>
+          <t>华安制造先锋混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>14.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>93.81</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5819</t>
+          <t>0.7250</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1189,36 +2025,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006154</t>
+          <t>010611</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安制造先锋混合</t>
+          <t>万家战略发展产业混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.47</t>
+          <t>12.80</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4612</t>
+          <t>0.5350</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1227,36 +2063,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>040015</t>
+          <t>010694</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安动态灵活配置混合</t>
+          <t>万家内需增长一年持有期混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.80</t>
+          <t>17.21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>79.58</t>
+          <t>94.85</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4498</t>
+          <t>0.5232</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1265,36 +2101,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010793</t>
+          <t>501075</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华安成长先锋混合C</t>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>17.95</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>79.41</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3046</t>
+          <t>0.4990</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1303,36 +2139,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010612</t>
+          <t>040001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>万家战略发展产业混合C</t>
+          <t>华安创新混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>16.06</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>74.45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2899</t>
+          <t>0.4866</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1351,26 +2187,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.08</t>
+          <t>10.93</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2464</t>
+          <t>0.3312</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1379,36 +2215,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002707</t>
+          <t>010793</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+          <t>华安成长先锋混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0832</t>
+          <t>0.2402</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1417,36 +2253,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006132</t>
+          <t>010612</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>万家智造优势混合A</t>
+          <t>万家战略发展产业混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0777</t>
+          <t>0.2115</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1455,36 +2291,295 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006133</t>
+          <t>002707</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>万家智造优势混合C</t>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>93.05</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0108</t>
+          <t>0.1512</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501219</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014198</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3029,7 +4124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3050,7 +4145,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3080,36 +4175,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>040015</t>
+          <t>010792</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安动态灵活配置混合</t>
+          <t>华安成长先锋混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.93</t>
+          <t>23.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.55</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1465</t>
+          <t>1.3682</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3118,36 +4213,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010792</t>
+          <t>010694</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安成长先锋混合A</t>
+          <t>万家内需增长一年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.44</t>
+          <t>28.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>94.12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0390</t>
+          <t>1.3291</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3156,36 +4251,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005299</t>
+          <t>010611</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家成长优选灵活配置混合A</t>
+          <t>万家战略发展产业混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24.43</t>
+          <t>17.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7402</t>
+          <t>0.7747</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3194,36 +4289,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006154</t>
+          <t>005299</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安制造先锋混合</t>
+          <t>万家成长优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14.05</t>
+          <t>19.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7250</t>
+          <t>0.5819</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -3232,36 +4327,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010611</t>
+          <t>006154</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>万家战略发展产业混合A</t>
+          <t>华安制造先锋混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12.80</t>
+          <t>9.47</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5350</t>
+          <t>0.4612</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -3270,36 +4365,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010694</t>
+          <t>040015</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>万家内需增长一年持有期混合</t>
+          <t>华安动态灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17.21</t>
+          <t>9.80</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.85</t>
+          <t>79.58</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5232</t>
+          <t>0.4498</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -3308,36 +4403,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501075</t>
+          <t>010793</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+          <t>华安成长先锋混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>17.95</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79.41</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4990</t>
+          <t>0.3046</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -3346,36 +4441,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>040001</t>
+          <t>010612</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华安创新混合</t>
+          <t>万家战略发展产业混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>16.06</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>74.45</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.4866</t>
+          <t>0.2899</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -3394,26 +4489,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.93</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3312</t>
+          <t>0.2464</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -3422,36 +4517,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010793</t>
+          <t>002707</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华安成长先锋混合C</t>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>91.97</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2402</t>
+          <t>0.0832</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -3460,36 +4555,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010612</t>
+          <t>006132</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>万家战略发展产业混合C</t>
+          <t>万家智造优势混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>93.64</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2115</t>
+          <t>0.0777</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -3498,295 +4593,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002707</t>
+          <t>006133</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+          <t>万家智造优势混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>93.64</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6.66</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1512</t>
+          <t>0.0108</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>501219</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华夏智胜先锋股票（LOF）A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0383</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006165</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>建信中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0256</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>014198</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华夏智胜先锋股票（LOF）C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0138</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>080007</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>长盛同鑫行业配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>87.31</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006166</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>建信中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>013442</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>建信中证1000指数增强E</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>007501</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>万家科创主题3年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>79.41</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3800,7 +4636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3821,7 +4657,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3851,32 +4687,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>040015</t>
+          <t>010792</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安动态灵活配置混合</t>
+          <t>华安成长先锋混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.94</t>
+          <t>31.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.57</t>
+          <t>94.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0713</t>
+          <t>1.5167</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -3889,36 +4725,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010792</t>
+          <t>010694</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安成长先锋混合A</t>
+          <t>万家内需增长一年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.25</t>
+          <t>24.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.66</t>
+          <t>81.84</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9088</t>
+          <t>1.0993</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3927,36 +4763,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010929</t>
+          <t>010793</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成核心价值甄选混合A</t>
+          <t>华安成长先锋混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.54</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.70</t>
+          <t>94.57</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8485</t>
+          <t>0.2456</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3965,36 +4801,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>040001</t>
+          <t>005299</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安创新混合</t>
+          <t>万家成长优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17.67</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.82</t>
+          <t>88.55</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7934</t>
+          <t>0.2132</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -4003,32 +4839,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>014007</t>
+          <t>040015</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安制造升级一年持有混合A</t>
+          <t>华安动态灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.77</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.74</t>
+          <t>79.67</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7838</t>
+          <t>0.1714</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -4041,36 +4877,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006154</t>
+          <t>005300</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安制造先锋混合</t>
+          <t>万家成长优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13.71</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>88.55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.6444</t>
+          <t>0.0883</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -4079,36 +4915,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>014389</t>
+          <t>006154</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华安产业动力6个月持有混合A</t>
+          <t>华安制造先锋混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.61</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>88.91</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4815</t>
+          <t>0.0476</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -4117,36 +4953,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001487</t>
+          <t>006132</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>宝盈优势产业灵活配置混合</t>
+          <t>万家智造优势混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>91.75</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.4219</t>
+          <t>0.0253</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -4155,872 +4991,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001128</t>
+          <t>006133</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>宝盈新兴产业灵活配置混合</t>
+          <t>万家智造优势混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12.06</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>91.75</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3678</t>
+          <t>0.0047</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001877</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>宝盈国家安全战略沪港深股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>10.74</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.86</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3566</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>013613</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>宝盈国家安全沪港深股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>10.74</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.86</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3566</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009069</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>大成睿鑫股票A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>85.73</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2475</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010793</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华安成长先锋混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.66</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2057</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>013619</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华安动态灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>78.57</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1835</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001075</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>宝盈转型动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1368</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002707</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>6.32</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1264</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006568</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>国联安行业领先混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>92.87</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0811</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005708</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>国联安远见成长混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0797</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>012771</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>宝盈优势产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0713</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>010930</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>大成核心价值甄选混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>80.70</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>8.05</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0692</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>012815</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>宝盈新兴产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.52</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0512</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>008871</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>82.91</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0414</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>011367</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>创金合信群力一年定期开放混合（MOM）A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>75.94</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0411</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
         <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>014390</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华安产业动力6个月持有混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>92.09</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0391</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>013507</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华安制造先锋混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0376</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>014008</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华安制造升级一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>92.74</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0363</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>009070</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>大成睿鑫股票C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>85.73</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0256</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>011368</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>创金合信群力一年定期开放混合（MOM）C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>75.94</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>014871</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>6.32</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>008872</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>82.91</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>004536</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>93.03</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -5034,128 +5034,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.52</v>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5517</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.72</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>39</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.75</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.98</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.41</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.73</v>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1762</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000657-中钨高新.xlsx
+++ b/数据整理/stocks/A股/深证主板/000657-中钨高新.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>8.52</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>6.72</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>10.75</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D5" t="n">
-        <v>5.98</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>3.41</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.73</v>
       </c>
     </row>
@@ -583,6 +600,898 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8829</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010699</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红创新趋势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7290</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5550</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4986</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4541</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4506</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4228</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2912</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014389</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2723</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013619</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012771</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>69.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014008</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014390</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013507</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007316</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014871</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007317</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>69.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1816,7 +2725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2587,7 +3496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4118,7 +5027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4630,7 +5539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5028,7 +5937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000657-中钨高新.xlsx
+++ b/数据整理/stocks/A股/深证主板/000657-中钨高新.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>5.29</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>8.52</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>6.72</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>10.75</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D6" t="n">
-        <v>5.98</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>3.41</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.73</v>
       </c>
     </row>
@@ -600,6 +617,1012 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010699</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红创新趋势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7939</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6024</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3335</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2785</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2546</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1709</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012771</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012815</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>39.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007316</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013613</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010762</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时恒康一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007317</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014871</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010763</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时恒康一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1491,7 +2514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2725,7 +3748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3496,7 +4519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5027,7 +6050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5539,7 +6562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5937,7 +6960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
